--- a/data/codes.xlsx
+++ b/data/codes.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Niveau III" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" name="Code" vbProcedure="false">'Niveau I'!$A:$A</definedName>
     <definedName function="false" hidden="false" name="Codes" vbProcedure="false">'Niveau I'!$A:$A</definedName>
     <definedName function="false" hidden="false" name="Libellé" vbProcedure="false">'Niveau I'!$B:$B</definedName>
   </definedNames>
